--- a/QC/October/Reporting Status of October-2025 data into Climsoft.xlsx
+++ b/QC/October/Reporting Status of October-2025 data into Climsoft.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\ADocuments\Stations\QC\Principal Stations\2025\10October\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\ADocuments\web\QC\October\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -97,7 +97,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="168" formatCode="0.0%"/>
+    <numFmt numFmtId="164" formatCode="0.0%"/>
   </numFmts>
   <fonts count="7" x14ac:knownFonts="1">
     <font>
@@ -241,95 +241,95 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    <xf numFmtId="164" fontId="4" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" wrapText="1"/>
-    </xf>
-    <xf numFmtId="168" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" wrapText="1"/>
-    </xf>
-    <xf numFmtId="168" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" wrapText="1"/>
-    </xf>
-    <xf numFmtId="168" fontId="4" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="168" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="4" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="168" fontId="4" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -614,469 +614,469 @@
   <dimension ref="A1:L16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q13" sqref="Q13"/>
+      <selection activeCell="P9" sqref="P9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="2" max="2" width="17.453125" customWidth="1"/>
     <col min="3" max="3" width="7.453125" customWidth="1"/>
-    <col min="4" max="4" width="9.08984375" customWidth="1"/>
+    <col min="4" max="4" width="32.90625" customWidth="1"/>
     <col min="5" max="5" width="7.81640625" customWidth="1"/>
-    <col min="6" max="6" width="9.26953125" customWidth="1"/>
+    <col min="6" max="6" width="27.08984375" customWidth="1"/>
     <col min="7" max="7" width="9.1796875" customWidth="1"/>
-    <col min="8" max="8" width="9.36328125" customWidth="1"/>
+    <col min="8" max="8" width="15" customWidth="1"/>
     <col min="9" max="9" width="18" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="22.5" x14ac:dyDescent="0.35">
-      <c r="B1" s="15" t="s">
+      <c r="B1" s="32" t="s">
         <v>18</v>
       </c>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
-      <c r="G1" s="15"/>
-      <c r="H1" s="15"/>
-      <c r="I1" s="15"/>
+      <c r="C1" s="32"/>
+      <c r="D1" s="32"/>
+      <c r="E1" s="32"/>
+      <c r="F1" s="32"/>
+      <c r="G1" s="32"/>
+      <c r="H1" s="32"/>
+      <c r="I1" s="32"/>
       <c r="J1" s="1"/>
       <c r="K1" s="1"/>
       <c r="L1" s="1"/>
     </row>
     <row r="2" spans="1:12" ht="57" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="12" t="s">
+      <c r="A2" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="B2" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="2" t="s">
+      <c r="B2" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2" t="s">
+      <c r="D2" s="33"/>
+      <c r="E2" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2" t="s">
+      <c r="F2" s="33"/>
+      <c r="G2" s="33" t="s">
         <v>16</v>
       </c>
-      <c r="H2" s="2"/>
-      <c r="I2" s="13" t="s">
+      <c r="H2" s="33"/>
+      <c r="I2" s="29" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="57" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="12"/>
-      <c r="B3" s="11"/>
-      <c r="C3" s="9" t="s">
+      <c r="A3" s="31"/>
+      <c r="B3" s="28"/>
+      <c r="C3" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="D3" s="9" t="s">
+      <c r="D3" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="E3" s="9" t="s">
+      <c r="E3" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="F3" s="9" t="s">
+      <c r="F3" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="G3" s="9" t="s">
+      <c r="G3" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="H3" s="9" t="s">
+      <c r="H3" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="I3" s="14"/>
+      <c r="I3" s="30"/>
     </row>
     <row r="4" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A4" s="16">
+      <c r="A4" s="9">
         <v>1</v>
       </c>
-      <c r="B4" s="17" t="s">
+      <c r="B4" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="18">
+      <c r="C4" s="11">
         <v>527</v>
       </c>
-      <c r="D4" s="18">
-        <v>6820</v>
-      </c>
-      <c r="E4" s="18">
-        <v>0</v>
-      </c>
-      <c r="F4" s="18">
-        <v>0</v>
-      </c>
-      <c r="G4" s="18">
+      <c r="D4" s="11">
+        <v>6820</v>
+      </c>
+      <c r="E4" s="11">
+        <v>0</v>
+      </c>
+      <c r="F4" s="11">
+        <v>0</v>
+      </c>
+      <c r="G4" s="11">
         <v>527</v>
       </c>
-      <c r="H4" s="18">
-        <v>6820</v>
-      </c>
-      <c r="I4" s="19">
-        <f>(G4+H4)/(D4+C4)</f>
+      <c r="H4" s="11">
+        <v>6820</v>
+      </c>
+      <c r="I4" s="12">
+        <f t="shared" ref="I4:I16" si="0">(G4+H4)/(D4+C4)</f>
         <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="39" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A5" s="16">
+      <c r="A5" s="9">
         <v>2</v>
       </c>
-      <c r="B5" s="17" t="s">
+      <c r="B5" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="18">
+      <c r="C5" s="11">
         <v>620</v>
       </c>
-      <c r="D5" s="18">
-        <v>6820</v>
-      </c>
-      <c r="E5" s="18">
+      <c r="D5" s="11">
+        <v>6820</v>
+      </c>
+      <c r="E5" s="11">
         <v>4</v>
       </c>
-      <c r="F5" s="18">
-        <v>0</v>
-      </c>
-      <c r="G5" s="18">
+      <c r="F5" s="11">
+        <v>0</v>
+      </c>
+      <c r="G5" s="11">
         <v>616</v>
       </c>
-      <c r="H5" s="18">
-        <v>6820</v>
-      </c>
-      <c r="I5" s="19">
-        <f>(G5+H5)/(D5+C5)</f>
+      <c r="H5" s="11">
+        <v>6820</v>
+      </c>
+      <c r="I5" s="12">
+        <f t="shared" si="0"/>
         <v>0.99946236559139789</v>
       </c>
     </row>
     <row r="6" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="16">
+      <c r="A6" s="9">
         <v>3</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="4">
+      <c r="C6" s="3">
         <v>713</v>
       </c>
-      <c r="D6" s="4">
-        <v>6820</v>
-      </c>
-      <c r="E6" s="4">
+      <c r="D6" s="3">
+        <v>6820</v>
+      </c>
+      <c r="E6" s="3">
         <v>4</v>
       </c>
-      <c r="F6" s="4">
+      <c r="F6" s="3">
         <v>5</v>
       </c>
-      <c r="G6" s="4">
+      <c r="G6" s="3">
         <v>709</v>
       </c>
-      <c r="H6" s="4">
+      <c r="H6" s="3">
         <v>6815</v>
       </c>
-      <c r="I6" s="26">
-        <f>(G6+H6)/(D6+C6)</f>
+      <c r="I6" s="19">
+        <f t="shared" si="0"/>
         <v>0.99880525686977295</v>
       </c>
     </row>
     <row r="7" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A7" s="16">
+      <c r="A7" s="9">
         <v>4</v>
       </c>
-      <c r="B7" s="17" t="s">
+      <c r="B7" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="18">
+      <c r="C7" s="11">
         <v>527</v>
       </c>
-      <c r="D7" s="18">
-        <v>6820</v>
-      </c>
-      <c r="E7" s="18">
+      <c r="D7" s="11">
+        <v>6820</v>
+      </c>
+      <c r="E7" s="11">
         <v>7</v>
       </c>
-      <c r="F7" s="18">
+      <c r="F7" s="11">
         <v>8</v>
       </c>
-      <c r="G7" s="18">
+      <c r="G7" s="11">
         <v>520</v>
       </c>
-      <c r="H7" s="18">
+      <c r="H7" s="11">
         <v>6812</v>
       </c>
-      <c r="I7" s="19">
-        <f>(G7+H7)/(D7+C7)</f>
+      <c r="I7" s="12">
+        <f t="shared" si="0"/>
         <v>0.99795835034708047</v>
       </c>
     </row>
     <row r="8" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A8" s="16">
+      <c r="A8" s="9">
         <v>5</v>
       </c>
-      <c r="B8" s="17" t="s">
+      <c r="B8" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="18">
+      <c r="C8" s="11">
         <v>558</v>
       </c>
-      <c r="D8" s="18">
+      <c r="D8" s="11">
         <v>4712</v>
       </c>
-      <c r="E8" s="18">
+      <c r="E8" s="11">
         <v>10</v>
       </c>
-      <c r="F8" s="18">
+      <c r="F8" s="11">
         <v>107</v>
       </c>
-      <c r="G8" s="18">
+      <c r="G8" s="11">
         <v>548</v>
       </c>
-      <c r="H8" s="18">
+      <c r="H8" s="11">
         <v>4605</v>
       </c>
-      <c r="I8" s="19">
-        <f>(G8+H8)/(D8+C8)</f>
+      <c r="I8" s="12">
+        <f t="shared" si="0"/>
         <v>0.97779886148007589</v>
       </c>
     </row>
     <row r="9" spans="1:12" ht="39" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="32">
+      <c r="A9" s="25">
         <v>6</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="B9" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="6">
+      <c r="C9" s="5">
         <v>527</v>
       </c>
-      <c r="D9" s="6">
-        <v>6820</v>
-      </c>
-      <c r="E9" s="6">
+      <c r="D9" s="5">
+        <v>6820</v>
+      </c>
+      <c r="E9" s="5">
         <v>2</v>
       </c>
-      <c r="F9" s="6">
+      <c r="F9" s="5">
         <v>774</v>
       </c>
-      <c r="G9" s="6">
+      <c r="G9" s="5">
         <v>525</v>
       </c>
-      <c r="H9" s="6">
+      <c r="H9" s="5">
         <v>6046</v>
       </c>
-      <c r="I9" s="33">
-        <f>(G9+H9)/(D9+C9)</f>
+      <c r="I9" s="26">
+        <f t="shared" si="0"/>
         <v>0.8943786579556281</v>
       </c>
     </row>
     <row r="10" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A10" s="32">
+      <c r="A10" s="25">
         <v>7</v>
       </c>
-      <c r="B10" s="20" t="s">
+      <c r="B10" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="C10" s="21">
+      <c r="C10" s="14">
         <v>434</v>
       </c>
-      <c r="D10" s="21">
-        <v>6820</v>
-      </c>
-      <c r="E10" s="21">
+      <c r="D10" s="14">
+        <v>6820</v>
+      </c>
+      <c r="E10" s="14">
         <v>14</v>
       </c>
-      <c r="F10" s="21">
+      <c r="F10" s="14">
         <v>2072</v>
       </c>
-      <c r="G10" s="21">
+      <c r="G10" s="14">
         <v>420</v>
       </c>
-      <c r="H10" s="21">
+      <c r="H10" s="14">
         <v>4748</v>
       </c>
-      <c r="I10" s="22">
-        <f>(G10+H10)/(D10+C10)</f>
+      <c r="I10" s="15">
+        <f t="shared" si="0"/>
         <v>0.71243451888613174</v>
       </c>
     </row>
     <row r="11" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A11" s="31">
+      <c r="A11" s="24">
         <v>8</v>
       </c>
-      <c r="B11" s="23" t="s">
+      <c r="B11" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="C11" s="24">
+      <c r="C11" s="17">
         <v>527</v>
       </c>
-      <c r="D11" s="24">
-        <v>6820</v>
-      </c>
-      <c r="E11" s="24">
+      <c r="D11" s="17">
+        <v>6820</v>
+      </c>
+      <c r="E11" s="17">
         <v>153</v>
       </c>
-      <c r="F11" s="24">
+      <c r="F11" s="17">
         <v>4258</v>
       </c>
-      <c r="G11" s="24">
+      <c r="G11" s="17">
         <v>374</v>
       </c>
-      <c r="H11" s="24">
+      <c r="H11" s="17">
         <v>2562</v>
       </c>
-      <c r="I11" s="25">
-        <f>(G11+H11)/(D11+C11)</f>
+      <c r="I11" s="18">
+        <f t="shared" si="0"/>
         <v>0.39961889206478834</v>
       </c>
     </row>
     <row r="12" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A12" s="31">
+      <c r="A12" s="24">
         <v>9</v>
       </c>
-      <c r="B12" s="23" t="s">
+      <c r="B12" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="C12" s="24">
+      <c r="C12" s="17">
         <v>496</v>
       </c>
-      <c r="D12" s="24">
-        <v>6820</v>
-      </c>
-      <c r="E12" s="24">
+      <c r="D12" s="17">
+        <v>6820</v>
+      </c>
+      <c r="E12" s="17">
         <v>88</v>
       </c>
-      <c r="F12" s="24">
+      <c r="F12" s="17">
         <v>5410</v>
       </c>
-      <c r="G12" s="24">
+      <c r="G12" s="17">
         <v>408</v>
       </c>
-      <c r="H12" s="24">
+      <c r="H12" s="17">
         <v>1410</v>
       </c>
-      <c r="I12" s="25">
-        <f>(G12+H12)/(D12+C12)</f>
+      <c r="I12" s="18">
+        <f t="shared" si="0"/>
         <v>0.24849644614543467</v>
       </c>
     </row>
     <row r="13" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="31">
+      <c r="A13" s="24">
         <v>10</v>
       </c>
-      <c r="B13" s="28" t="s">
+      <c r="B13" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="C13" s="29">
+      <c r="C13" s="22">
         <v>713</v>
       </c>
-      <c r="D13" s="29">
-        <v>6820</v>
-      </c>
-      <c r="E13" s="29">
+      <c r="D13" s="22">
+        <v>6820</v>
+      </c>
+      <c r="E13" s="22">
         <v>713</v>
       </c>
-      <c r="F13" s="29">
+      <c r="F13" s="22">
         <v>5530</v>
       </c>
-      <c r="G13" s="29">
-        <v>0</v>
-      </c>
-      <c r="H13" s="29">
+      <c r="G13" s="22">
+        <v>0</v>
+      </c>
+      <c r="H13" s="22">
         <v>1290</v>
       </c>
-      <c r="I13" s="30">
-        <f>(G13+H13)/(D13+C13)</f>
+      <c r="I13" s="23">
+        <f t="shared" si="0"/>
         <v>0.17124651533253685</v>
       </c>
     </row>
     <row r="14" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A14" s="31">
+      <c r="A14" s="24">
         <v>11</v>
       </c>
-      <c r="B14" s="23" t="s">
+      <c r="B14" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="C14" s="24">
+      <c r="C14" s="17">
         <v>527</v>
       </c>
-      <c r="D14" s="24">
-        <v>6820</v>
-      </c>
-      <c r="E14" s="24">
-        <v>0</v>
-      </c>
-      <c r="F14" s="24">
-        <v>6820</v>
-      </c>
-      <c r="G14" s="24">
+      <c r="D14" s="17">
+        <v>6820</v>
+      </c>
+      <c r="E14" s="17">
+        <v>0</v>
+      </c>
+      <c r="F14" s="17">
+        <v>6820</v>
+      </c>
+      <c r="G14" s="17">
         <v>527</v>
       </c>
-      <c r="H14" s="24">
-        <v>0</v>
-      </c>
-      <c r="I14" s="25">
-        <f>(G14+H14)/(D14+C14)</f>
+      <c r="H14" s="17">
+        <v>0</v>
+      </c>
+      <c r="I14" s="18">
+        <f t="shared" si="0"/>
         <v>7.1729957805907171E-2</v>
       </c>
     </row>
     <row r="15" spans="1:12" ht="39" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="31">
+      <c r="A15" s="24">
         <v>12</v>
       </c>
-      <c r="B15" s="7" t="s">
+      <c r="B15" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C15" s="8">
+      <c r="C15" s="7">
         <v>713</v>
       </c>
-      <c r="D15" s="8">
-        <v>6820</v>
-      </c>
-      <c r="E15" s="8">
+      <c r="D15" s="7">
+        <v>6820</v>
+      </c>
+      <c r="E15" s="7">
         <v>713</v>
       </c>
-      <c r="F15" s="8">
-        <v>6820</v>
-      </c>
-      <c r="G15" s="8">
-        <v>0</v>
-      </c>
-      <c r="H15" s="8">
-        <v>0</v>
-      </c>
-      <c r="I15" s="27">
-        <f>(G15+H15)/(D15+C15)</f>
+      <c r="F15" s="7">
+        <v>6820</v>
+      </c>
+      <c r="G15" s="7">
+        <v>0</v>
+      </c>
+      <c r="H15" s="7">
+        <v>0</v>
+      </c>
+      <c r="I15" s="20">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:12" ht="39" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="31">
+      <c r="A16" s="24">
         <v>13</v>
       </c>
-      <c r="B16" s="7" t="s">
+      <c r="B16" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="C16" s="8">
+      <c r="C16" s="7">
         <v>527</v>
       </c>
-      <c r="D16" s="8">
-        <v>6820</v>
-      </c>
-      <c r="E16" s="8">
+      <c r="D16" s="7">
+        <v>6820</v>
+      </c>
+      <c r="E16" s="7">
         <v>527</v>
       </c>
-      <c r="F16" s="8">
-        <v>6820</v>
-      </c>
-      <c r="G16" s="8">
-        <v>0</v>
-      </c>
-      <c r="H16" s="8">
-        <v>0</v>
-      </c>
-      <c r="I16" s="27">
-        <f>(G16+H16)/(D16+C16)</f>
+      <c r="F16" s="7">
+        <v>6820</v>
+      </c>
+      <c r="G16" s="7">
+        <v>0</v>
+      </c>
+      <c r="H16" s="7">
+        <v>0</v>
+      </c>
+      <c r="I16" s="20">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
